--- a/Project/2018-02-23.KPI考核指标/2018年KPI考核指标表0222_yj.xlsx
+++ b/Project/2018-02-23.KPI考核指标/2018年KPI考核指标表0222_yj.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="120">
   <si>
     <t>目标</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -254,14 +254,6 @@
   </si>
   <si>
     <t>APP</t>
-  </si>
-  <si>
-    <t>APP月活</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情页转化率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>微信运营部</t>
@@ -308,10 +300,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>视频购商品详情页转化率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>市场部</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -336,14 +324,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>当月新注册会员净订购转化率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>老会员复购人数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>数据产品部</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -368,10 +348,6 @@
   </si>
   <si>
     <t>已fact_daily_app 里面的转化率求平均</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已fact_daily_wx 里面的新增注册求平均</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -519,10 +495,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>newvtcount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>kpi_asmt_old_uv</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -540,10 +512,6 @@
   </si>
   <si>
     <t>kpi_asmt_app_net_order_cvr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kpi_asmt_app_item_cvr</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -579,10 +547,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>已fact_daily_app 里面的下载求平均</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>kpi_asmt_app_download</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -592,6 +556,51 @@
   </si>
   <si>
     <t>kpi_asmt_repurchase_member</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已fact_daily_app 里面的下载求和</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP月活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KPI考核指标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频购商品详情页转化率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月新注册会员净订购转化率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老会员复购人数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>除KPI考核指标--渠道运营部--商品详情页转化率指标以外，所有指标汇总在KPI_ASMT_TOTAL_MONTH表。
+每日07:00执行。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kpi_asmt_app_item_cvr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已fact_daily_wx 里面的新增注册求和</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页转化率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +740,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,6 +780,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1125,14 +1137,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E19" sqref="E19"/>
       <selection pane="topRight" activeCell="E19" sqref="E19"/>
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1166,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -1331,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>33</v>
@@ -1539,19 +1551,19 @@
         <v>40</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>33</v>
@@ -1571,19 +1583,19 @@
         <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>33</v>
@@ -1607,17 +1619,17 @@
         <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>33</v>
@@ -1638,15 +1650,15 @@
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
@@ -1662,22 +1674,22 @@
         <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>33</v>
@@ -1698,22 +1710,22 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>33</v>
@@ -1734,15 +1746,15 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
@@ -1764,15 +1776,15 @@
         <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
@@ -1794,15 +1806,15 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
@@ -1824,15 +1836,15 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
@@ -1852,20 +1864,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>33</v>
@@ -1886,15 +1898,15 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
@@ -1913,23 +1925,23 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>33</v>
@@ -1950,22 +1962,22 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>33</v>
@@ -1986,22 +1998,22 @@
         <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>33</v>
@@ -2022,10 +2034,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2050,22 +2062,22 @@
         <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>33</v>
@@ -2086,15 +2098,15 @@
         <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="4" t="s">
@@ -2116,20 +2128,20 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>33</v>
@@ -2150,20 +2162,20 @@
         <v>23</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>33</v>
@@ -2180,20 +2192,20 @@
         <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>33</v>
@@ -2210,10 +2222,10 @@
         <v>23</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -2238,10 +2250,10 @@
         <v>23</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -2266,10 +2278,10 @@
         <v>23</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -2288,6 +2300,13 @@
       <c r="L37" s="4" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="39" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:X37">
@@ -2302,6 +2321,9 @@
       </filters>
     </filterColumn>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A39:C39"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C14:E14">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="考勤">
@@ -2344,678 +2366,678 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:U12"/>
+      <selection activeCell="P1" sqref="P1:U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
+      <c r="P1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="14" t="s">
+      <c r="P13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Project/2018-02-23.KPI考核指标/2018年KPI考核指标表0222_yj.xlsx
+++ b/Project/2018-02-23.KPI考核指标/2018年KPI考核指标表0222_yj.xlsx
@@ -740,7 +740,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -792,6 +792,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1144,7 +1150,7 @@
       <selection activeCell="E19" sqref="E19"/>
       <selection pane="topRight" activeCell="E19" sqref="E19"/>
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1679,7 +1685,7 @@
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="18" t="s">
         <v>96</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -1869,7 +1875,7 @@
       <c r="C24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="19" t="s">
         <v>104</v>
       </c>
       <c r="E24" s="6"/>
@@ -3041,6 +3047,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O1:O12"/>
+    <mergeCell ref="P1:U12"/>
+    <mergeCell ref="O13:O28"/>
+    <mergeCell ref="P13:U28"/>
+    <mergeCell ref="B1:G12"/>
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="A13:A28"/>
     <mergeCell ref="B13:G28"/>
@@ -3048,11 +3059,6 @@
     <mergeCell ref="I13:N28"/>
     <mergeCell ref="H1:H12"/>
     <mergeCell ref="I1:N12"/>
-    <mergeCell ref="O1:O12"/>
-    <mergeCell ref="P1:U12"/>
-    <mergeCell ref="O13:O28"/>
-    <mergeCell ref="P13:U28"/>
-    <mergeCell ref="B1:G12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project/2018-02-23.KPI考核指标/2018年KPI考核指标表0222_yj.xlsx
+++ b/Project/2018-02-23.KPI考核指标/2018年KPI考核指标表0222_yj.xlsx
@@ -440,10 +440,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>设备uvcnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>fact_session</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -601,6 +597,10 @@
   </si>
   <si>
     <t>商品详情页转化率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备uvcnt+liteuvcnt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -781,6 +781,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -792,12 +798,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1150,7 +1150,7 @@
       <selection activeCell="E19" sqref="E19"/>
       <selection pane="topRight" activeCell="E19" sqref="E19"/>
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -1557,10 +1557,10 @@
         <v>40</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>86</v>
@@ -1569,7 +1569,7 @@
         <v>45</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>33</v>
@@ -1589,13 +1589,13 @@
         <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>45</v>
@@ -1625,10 +1625,10 @@
         <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="4" t="s">
@@ -1685,17 +1685,17 @@
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>96</v>
+      <c r="D18" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>33</v>
@@ -1722,16 +1722,16 @@
         <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>33</v>
@@ -1875,8 +1875,8 @@
       <c r="C24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>104</v>
+      <c r="D24" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="4" t="s">
@@ -1931,16 +1931,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="4" t="s">
@@ -1974,7 +1974,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>86</v>
@@ -1983,7 +1983,7 @@
         <v>26</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>33</v>
@@ -2010,7 +2010,7 @@
         <v>59</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>86</v>
@@ -2019,7 +2019,7 @@
         <v>26</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>33</v>
@@ -2074,16 +2074,16 @@
         <v>61</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>33</v>
@@ -2137,10 +2137,10 @@
         <v>57</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
@@ -2171,10 +2171,10 @@
         <v>57</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
@@ -2204,7 +2204,7 @@
         <v>64</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="6" t="s">
@@ -2308,11 +2308,11 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:X37">
@@ -2378,680 +2378,675 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="B1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="15" t="s">
+      <c r="I1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="15" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="15" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O1:O12"/>
-    <mergeCell ref="P1:U12"/>
-    <mergeCell ref="O13:O28"/>
-    <mergeCell ref="P13:U28"/>
-    <mergeCell ref="B1:G12"/>
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="A13:A28"/>
     <mergeCell ref="B13:G28"/>
@@ -3059,6 +3054,11 @@
     <mergeCell ref="I13:N28"/>
     <mergeCell ref="H1:H12"/>
     <mergeCell ref="I1:N12"/>
+    <mergeCell ref="O1:O12"/>
+    <mergeCell ref="P1:U12"/>
+    <mergeCell ref="O13:O28"/>
+    <mergeCell ref="P13:U28"/>
+    <mergeCell ref="B1:G12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
